--- a/api/v1/lib/Oxzion/test/ParserTest/Data/FieldValidationTemplate.xlsx
+++ b/api/v1/lib/Oxzion/test/ParserTest/Data/FieldValidationTemplate.xlsx
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="122">
   <si>
     <t>Field Name</t>
   </si>
@@ -463,6 +463,9 @@
   </si>
   <si>
     <t>Do passengers remain on board for more than one consecutive 24-hour period?</t>
+  </si>
+  <si>
+    <t>Decimal Places</t>
   </si>
 </sst>
 </file>
@@ -521,8 +524,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:P1048576" totalsRowShown="0">
-  <autoFilter ref="A1:P1048576">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:Q1048576" totalsRowShown="0">
+  <autoFilter ref="A1:Q1048576">
     <filterColumn colId="2"/>
     <filterColumn colId="5"/>
     <filterColumn colId="6"/>
@@ -530,8 +533,9 @@
     <filterColumn colId="11"/>
     <filterColumn colId="12"/>
     <filterColumn colId="13"/>
+    <filterColumn colId="14"/>
   </autoFilter>
-  <tableColumns count="16">
+  <tableColumns count="17">
     <tableColumn id="1" name="Field Name"/>
     <tableColumn id="2" name="Field Label"/>
     <tableColumn id="10" name="Parent Field Name"/>
@@ -544,6 +548,7 @@
     <tableColumn id="6" name="Required?"/>
     <tableColumn id="15" name="Min "/>
     <tableColumn id="14" name="Max "/>
+    <tableColumn id="11" name="Decimal Places"/>
     <tableColumn id="16" name="Regex Pattern"/>
     <tableColumn id="17" name="Format"/>
     <tableColumn id="7" name="Error Message"/>
@@ -838,11 +843,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P2000"/>
+  <dimension ref="A1:Q2000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -855,13 +860,13 @@
     <col min="7" max="7" width="21.140625" customWidth="1"/>
     <col min="8" max="8" width="28.28515625" customWidth="1"/>
     <col min="9" max="9" width="30.42578125" customWidth="1"/>
-    <col min="10" max="14" width="12.140625" customWidth="1"/>
-    <col min="15" max="15" width="28.42578125" customWidth="1"/>
-    <col min="16" max="16" width="18.28515625" customWidth="1"/>
-    <col min="32" max="33" width="9.140625" customWidth="1"/>
+    <col min="10" max="15" width="12.140625" customWidth="1"/>
+    <col min="16" max="16" width="28.42578125" customWidth="1"/>
+    <col min="17" max="17" width="18.28515625" customWidth="1"/>
+    <col min="33" max="34" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -899,19 +904,22 @@
         <v>32</v>
       </c>
       <c r="M1" t="s">
+        <v>121</v>
+      </c>
+      <c r="N1" t="s">
         <v>34</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>35</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>6</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
         <v>46</v>
       </c>
@@ -936,11 +944,11 @@
       <c r="L2">
         <v>25</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
         <v>50</v>
       </c>
@@ -965,11 +973,11 @@
       <c r="L3">
         <v>25</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
         <v>53</v>
       </c>
@@ -988,11 +996,11 @@
       <c r="J4" t="s">
         <v>48</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:17">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -1012,7 +1020,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:17">
       <c r="A6" t="s">
         <v>59</v>
       </c>
@@ -1031,11 +1039,11 @@
       <c r="J6" t="s">
         <v>48</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:17">
       <c r="A7" t="s">
         <v>62</v>
       </c>
@@ -1054,11 +1062,11 @@
       <c r="J7" t="s">
         <v>48</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:17">
       <c r="A8" t="s">
         <v>65</v>
       </c>
@@ -1080,14 +1088,14 @@
       <c r="L8">
         <v>15</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>67</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:17">
       <c r="A9" t="s">
         <v>69</v>
       </c>
@@ -1106,14 +1114,14 @@
       <c r="J9" t="s">
         <v>48</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>71</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:17">
       <c r="A10" t="s">
         <v>73</v>
       </c>
@@ -1135,11 +1143,11 @@
       <c r="L10" t="s">
         <v>75</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:17">
       <c r="A11" t="s">
         <v>77</v>
       </c>
@@ -1159,7 +1167,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:17">
       <c r="A12" t="s">
         <v>79</v>
       </c>
@@ -1178,11 +1186,11 @@
       <c r="J12" t="s">
         <v>48</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:17">
       <c r="F13" t="s">
         <v>81</v>
       </c>
@@ -1193,7 +1201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:17">
       <c r="F14" t="s">
         <v>85</v>
       </c>
@@ -1204,7 +1212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:17">
       <c r="F15" t="s">
         <v>87</v>
       </c>
@@ -1215,7 +1223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:17">
       <c r="F16" t="s">
         <v>89</v>
       </c>
@@ -1226,7 +1234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:16">
       <c r="A17" t="s">
         <v>91</v>
       </c>
@@ -1243,7 +1251,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:16">
       <c r="A18" t="s">
         <v>93</v>
       </c>
@@ -1265,11 +1273,11 @@
       <c r="J18" t="s">
         <v>48</v>
       </c>
-      <c r="O18" t="s">
+      <c r="P18" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:16">
       <c r="A19" t="s">
         <v>77</v>
       </c>
@@ -1291,11 +1299,11 @@
       <c r="J19" t="s">
         <v>48</v>
       </c>
-      <c r="O19" t="s">
+      <c r="P19" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:16">
       <c r="A20" t="s">
         <v>97</v>
       </c>
@@ -1317,11 +1325,11 @@
       <c r="J20" t="s">
         <v>48</v>
       </c>
-      <c r="O20" t="s">
+      <c r="P20" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:16">
       <c r="F21" t="s">
         <v>99</v>
       </c>
@@ -1329,7 +1337,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:16">
       <c r="F22" t="s">
         <v>101</v>
       </c>
@@ -1337,7 +1345,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:16">
       <c r="A23" t="s">
         <v>102</v>
       </c>
@@ -1353,11 +1361,11 @@
       <c r="J23" t="s">
         <v>48</v>
       </c>
-      <c r="O23" t="s">
+      <c r="P23" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:16">
       <c r="F24" t="s">
         <v>36</v>
       </c>
@@ -1368,7 +1376,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:16">
       <c r="F25" t="s">
         <v>110</v>
       </c>
@@ -1379,7 +1387,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:16">
       <c r="F26" t="s">
         <v>107</v>
       </c>
@@ -1390,7 +1398,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:16">
       <c r="A27" t="s">
         <v>105</v>
       </c>
@@ -1404,7 +1412,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:16">
       <c r="F28" t="s">
         <v>36</v>
       </c>
@@ -1415,7 +1423,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:16">
       <c r="F29" t="s">
         <v>110</v>
       </c>
@@ -1426,7 +1434,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:16">
       <c r="F30" t="s">
         <v>107</v>
       </c>
@@ -1437,7 +1445,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:16">
       <c r="A31" t="s">
         <v>107</v>
       </c>
@@ -1451,7 +1459,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:16">
       <c r="F32" t="s">
         <v>36</v>
       </c>
@@ -1462,7 +1470,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:16">
       <c r="F33" t="s">
         <v>110</v>
       </c>
@@ -1473,7 +1481,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:16">
       <c r="F34" t="s">
         <v>107</v>
       </c>
@@ -1484,7 +1492,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:16">
       <c r="A35" t="s">
         <v>113</v>
       </c>
@@ -1500,11 +1508,11 @@
       <c r="J35" t="s">
         <v>48</v>
       </c>
-      <c r="O35" t="s">
+      <c r="P35" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:16">
       <c r="F36" t="s">
         <v>99</v>
       </c>
@@ -1512,7 +1520,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:16">
       <c r="F37" t="s">
         <v>101</v>
       </c>
@@ -1520,7 +1528,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:16">
       <c r="A38" t="s">
         <v>117</v>
       </c>
@@ -1531,7 +1539,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:16">
       <c r="A39" t="s">
         <v>119</v>
       </c>

--- a/api/v1/lib/Oxzion/test/ParserTest/Data/FieldValidationTemplate.xlsx
+++ b/api/v1/lib/Oxzion/test/ParserTest/Data/FieldValidationTemplate.xlsx
@@ -33,7 +33,7 @@
     <definedName name="signature">Sheet2!$D$7</definedName>
     <definedName name="survey">Sheet2!$D$8</definedName>
     <definedName name="tags">Sheet2!$D$6</definedName>
-    <definedName name="textarea">Sheet2!$D$5</definedName>
+    <definedName name="textarea">Sheet2!$D$10</definedName>
     <definedName name="textfield">Sheet2!$D$5</definedName>
     <definedName name="time">Sheet2!$D$9:$E$9</definedName>
     <definedName name="url">Sheet2!$D$5</definedName>
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="123">
   <si>
     <t>Field Name</t>
   </si>
@@ -466,6 +466,9 @@
   </si>
   <si>
     <t>Decimal Places</t>
+  </si>
+  <si>
+    <t>longtext</t>
   </si>
 </sst>
 </file>
@@ -847,7 +850,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M2" sqref="M2"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1584,9 +1587,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:E24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1674,6 +1675,9 @@
     <row r="10" spans="2:5">
       <c r="B10" t="s">
         <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="2:5">
